--- a/Analyses/world cafe/outputs/summary_ratings.xlsx
+++ b/Analyses/world cafe/outputs/summary_ratings.xlsx
@@ -295,19 +295,19 @@
         <v>37</v>
       </c>
       <c r="C2" t="n">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
       <c r="D2" t="n">
-        <v>8.38</v>
+        <v>8.47</v>
       </c>
       <c r="E2" t="n">
-        <v>1.45</v>
+        <v>1.26</v>
       </c>
       <c r="F2" t="n">
-        <v>5.54</v>
+        <v>5.53</v>
       </c>
       <c r="G2" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="3">
@@ -318,19 +318,19 @@
         <v>38</v>
       </c>
       <c r="C3" t="n">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.92</v>
+        <v>5.0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.06</v>
+        <v>1.76</v>
       </c>
       <c r="F3" t="n">
-        <v>4.31</v>
+        <v>4.21</v>
       </c>
       <c r="G3" t="n">
-        <v>0.75</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="4">
@@ -341,16 +341,16 @@
         <v>39</v>
       </c>
       <c r="C4" t="n">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
       <c r="D4" t="n">
-        <v>6.96</v>
+        <v>7.42</v>
       </c>
       <c r="E4" t="n">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="F4" t="n">
-        <v>5.08</v>
+        <v>4.89</v>
       </c>
       <c r="G4" t="n">
         <v>1.09</v>
@@ -364,19 +364,19 @@
         <v>40</v>
       </c>
       <c r="C5" t="n">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
       <c r="D5" t="n">
-        <v>7.62</v>
+        <v>7.79</v>
       </c>
       <c r="E5" t="n">
-        <v>1.94</v>
+        <v>1.78</v>
       </c>
       <c r="F5" t="n">
-        <v>5.46</v>
+        <v>5.42</v>
       </c>
       <c r="G5" t="n">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="6">
@@ -387,19 +387,19 @@
         <v>41</v>
       </c>
       <c r="C6" t="n">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
       <c r="D6" t="n">
-        <v>7.69</v>
+        <v>7.74</v>
       </c>
       <c r="E6" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="F6" t="n">
-        <v>5.23</v>
+        <v>5.21</v>
       </c>
       <c r="G6" t="n">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="7">
@@ -410,19 +410,19 @@
         <v>42</v>
       </c>
       <c r="C7" t="n">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
       <c r="D7" t="n">
-        <v>6.46</v>
+        <v>6.58</v>
       </c>
       <c r="E7" t="n">
-        <v>1.76</v>
+        <v>1.87</v>
       </c>
       <c r="F7" t="n">
-        <v>4.31</v>
+        <v>4.32</v>
       </c>
       <c r="G7" t="n">
-        <v>1.25</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="8">
@@ -433,19 +433,19 @@
         <v>43</v>
       </c>
       <c r="C8" t="n">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
       <c r="D8" t="n">
-        <v>6.31</v>
+        <v>6.63</v>
       </c>
       <c r="E8" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="F8" t="n">
-        <v>4.62</v>
+        <v>4.47</v>
       </c>
       <c r="G8" t="n">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="9">
@@ -456,19 +456,19 @@
         <v>44</v>
       </c>
       <c r="C9" t="n">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
       <c r="D9" t="n">
-        <v>8.23</v>
+        <v>8.21</v>
       </c>
       <c r="E9" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="F9" t="n">
-        <v>5.69</v>
+        <v>5.58</v>
       </c>
       <c r="G9" t="n">
-        <v>1.03</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="10">
@@ -479,19 +479,19 @@
         <v>45</v>
       </c>
       <c r="C10" t="n">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
       <c r="D10" t="n">
-        <v>6.92</v>
+        <v>7.42</v>
       </c>
       <c r="E10" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="F10" t="n">
-        <v>5.31</v>
+        <v>5.47</v>
       </c>
       <c r="G10" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="11">
@@ -502,19 +502,19 @@
         <v>46</v>
       </c>
       <c r="C11" t="n">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.38</v>
+        <v>6.58</v>
       </c>
       <c r="E11" t="n">
-        <v>2.26</v>
+        <v>2.29</v>
       </c>
       <c r="F11" t="n">
-        <v>4.38</v>
+        <v>4.53</v>
       </c>
       <c r="G11" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="12">
@@ -525,19 +525,19 @@
         <v>47</v>
       </c>
       <c r="C12" t="n">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
       <c r="D12" t="n">
-        <v>7.92</v>
+        <v>8.05</v>
       </c>
       <c r="E12" t="n">
-        <v>0.76</v>
+        <v>0.85</v>
       </c>
       <c r="F12" t="n">
-        <v>5.54</v>
+        <v>5.47</v>
       </c>
       <c r="G12" t="n">
-        <v>1.2</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="13">
@@ -548,19 +548,19 @@
         <v>48</v>
       </c>
       <c r="C13" t="n">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
       <c r="D13" t="n">
-        <v>7.92</v>
+        <v>8.11</v>
       </c>
       <c r="E13" t="n">
-        <v>1.89</v>
+        <v>1.66</v>
       </c>
       <c r="F13" t="n">
-        <v>6.15</v>
+        <v>6.05</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="14">
@@ -571,19 +571,19 @@
         <v>49</v>
       </c>
       <c r="C14" t="n">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
       <c r="D14" t="n">
-        <v>8.38</v>
+        <v>8.42</v>
       </c>
       <c r="E14" t="n">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="F14" t="n">
         <v>6.0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.78</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="15">
@@ -594,19 +594,19 @@
         <v>50</v>
       </c>
       <c r="C15" t="n">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
       <c r="D15" t="n">
-        <v>6.85</v>
+        <v>6.95</v>
       </c>
       <c r="E15" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="F15" t="n">
-        <v>5.31</v>
+        <v>5.05</v>
       </c>
       <c r="G15" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="16">
@@ -617,19 +617,19 @@
         <v>51</v>
       </c>
       <c r="C16" t="n">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
       <c r="D16" t="n">
-        <v>7.69</v>
+        <v>7.58</v>
       </c>
       <c r="E16" t="n">
-        <v>2.21</v>
+        <v>2.14</v>
       </c>
       <c r="F16" t="n">
-        <v>4.92</v>
+        <v>4.74</v>
       </c>
       <c r="G16" t="n">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="17">
@@ -640,19 +640,19 @@
         <v>52</v>
       </c>
       <c r="C17" t="n">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
       <c r="D17" t="n">
-        <v>6.62</v>
+        <v>6.84</v>
       </c>
       <c r="E17" t="n">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="F17" t="n">
-        <v>5.23</v>
+        <v>5.16</v>
       </c>
       <c r="G17" t="n">
-        <v>1.24</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="18">
@@ -663,19 +663,19 @@
         <v>53</v>
       </c>
       <c r="C18" t="n">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
       <c r="D18" t="n">
-        <v>5.0</v>
+        <v>5.47</v>
       </c>
       <c r="E18" t="n">
-        <v>2.31</v>
+        <v>2.29</v>
       </c>
       <c r="F18" t="n">
-        <v>4.46</v>
+        <v>4.47</v>
       </c>
       <c r="G18" t="n">
-        <v>1.05</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="19">
@@ -686,19 +686,19 @@
         <v>54</v>
       </c>
       <c r="C19" t="n">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
       <c r="D19" t="n">
-        <v>7.08</v>
+        <v>7.26</v>
       </c>
       <c r="E19" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="F19" t="n">
-        <v>5.31</v>
+        <v>5.26</v>
       </c>
       <c r="G19" t="n">
-        <v>1.6</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="20">
@@ -709,19 +709,19 @@
         <v>55</v>
       </c>
       <c r="C20" t="n">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
       <c r="D20" t="n">
-        <v>5.54</v>
+        <v>5.53</v>
       </c>
       <c r="E20" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="F20" t="n">
-        <v>4.31</v>
+        <v>4.37</v>
       </c>
       <c r="G20" t="n">
-        <v>0.63</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="21">
@@ -732,19 +732,19 @@
         <v>56</v>
       </c>
       <c r="C21" t="n">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
       <c r="D21" t="n">
-        <v>6.08</v>
+        <v>6.37</v>
       </c>
       <c r="E21" t="n">
-        <v>2.56</v>
+        <v>2.45</v>
       </c>
       <c r="F21" t="n">
-        <v>4.38</v>
+        <v>4.37</v>
       </c>
       <c r="G21" t="n">
-        <v>1.39</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="22">
@@ -755,19 +755,19 @@
         <v>57</v>
       </c>
       <c r="C22" t="n">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
       <c r="D22" t="n">
-        <v>7.08</v>
+        <v>7.68</v>
       </c>
       <c r="E22" t="n">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="F22" t="n">
-        <v>5.23</v>
+        <v>5.42</v>
       </c>
       <c r="G22" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="23">
@@ -778,19 +778,19 @@
         <v>58</v>
       </c>
       <c r="C23" t="n">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
       <c r="D23" t="n">
-        <v>7.92</v>
+        <v>7.89</v>
       </c>
       <c r="E23" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="F23" t="n">
-        <v>5.38</v>
+        <v>5.16</v>
       </c>
       <c r="G23" t="n">
-        <v>0.87</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="24">
@@ -801,19 +801,19 @@
         <v>59</v>
       </c>
       <c r="C24" t="n">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
       <c r="D24" t="n">
-        <v>8.38</v>
+        <v>8.26</v>
       </c>
       <c r="E24" t="n">
         <v>1.19</v>
       </c>
       <c r="F24" t="n">
-        <v>5.46</v>
+        <v>5.16</v>
       </c>
       <c r="G24" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="25">
@@ -824,19 +824,19 @@
         <v>60</v>
       </c>
       <c r="C25" t="n">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
       <c r="D25" t="n">
-        <v>7.38</v>
+        <v>7.37</v>
       </c>
       <c r="E25" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="F25" t="n">
-        <v>5.23</v>
+        <v>5.16</v>
       </c>
       <c r="G25" t="n">
-        <v>1.3</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="26">
@@ -847,19 +847,19 @@
         <v>61</v>
       </c>
       <c r="C26" t="n">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
       <c r="D26" t="n">
-        <v>7.69</v>
+        <v>7.47</v>
       </c>
       <c r="E26" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="F26" t="n">
-        <v>5.69</v>
+        <v>5.58</v>
       </c>
       <c r="G26" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="27">
@@ -870,19 +870,19 @@
         <v>62</v>
       </c>
       <c r="C27" t="n">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
       <c r="D27" t="n">
-        <v>7.85</v>
+        <v>7.68</v>
       </c>
       <c r="E27" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="F27" t="n">
-        <v>5.69</v>
+        <v>5.47</v>
       </c>
       <c r="G27" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="28">
@@ -893,19 +893,19 @@
         <v>63</v>
       </c>
       <c r="C28" t="n">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
       <c r="D28" t="n">
-        <v>5.08</v>
+        <v>5.26</v>
       </c>
       <c r="E28" t="n">
-        <v>2.18</v>
+        <v>2.21</v>
       </c>
       <c r="F28" t="n">
-        <v>4.46</v>
+        <v>4.32</v>
       </c>
       <c r="G28" t="n">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="29">
@@ -916,19 +916,19 @@
         <v>64</v>
       </c>
       <c r="C29" t="n">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
       <c r="D29" t="n">
-        <v>8.31</v>
+        <v>8.11</v>
       </c>
       <c r="E29" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="F29" t="n">
-        <v>5.62</v>
+        <v>5.32</v>
       </c>
       <c r="G29" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="30">
@@ -939,19 +939,19 @@
         <v>65</v>
       </c>
       <c r="C30" t="n">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
       <c r="D30" t="n">
-        <v>8.54</v>
+        <v>8.53</v>
       </c>
       <c r="E30" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="F30" t="n">
-        <v>5.92</v>
+        <v>6.0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="31">
@@ -962,19 +962,19 @@
         <v>66</v>
       </c>
       <c r="C31" t="n">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
       <c r="D31" t="n">
-        <v>6.77</v>
+        <v>6.68</v>
       </c>
       <c r="E31" t="n">
-        <v>2.71</v>
+        <v>2.58</v>
       </c>
       <c r="F31" t="n">
-        <v>4.38</v>
+        <v>4.32</v>
       </c>
       <c r="G31" t="n">
-        <v>0.96</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="32">
@@ -985,19 +985,19 @@
         <v>67</v>
       </c>
       <c r="C32" t="n">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
       <c r="D32" t="n">
-        <v>6.08</v>
+        <v>6.05</v>
       </c>
       <c r="E32" t="n">
-        <v>2.29</v>
+        <v>1.96</v>
       </c>
       <c r="F32" t="n">
-        <v>4.92</v>
+        <v>4.79</v>
       </c>
       <c r="G32" t="n">
-        <v>1.12</v>
+        <v>0.98</v>
       </c>
     </row>
   </sheetData>

--- a/Analyses/world cafe/outputs/summary_ratings.xlsx
+++ b/Analyses/world cafe/outputs/summary_ratings.xlsx
@@ -295,19 +295,19 @@
         <v>37</v>
       </c>
       <c r="C2" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="D2" t="n">
-        <v>8.47</v>
+        <v>8.57</v>
       </c>
       <c r="E2" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="F2" t="n">
-        <v>5.53</v>
+        <v>5.67</v>
       </c>
       <c r="G2" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="3">
@@ -318,19 +318,19 @@
         <v>38</v>
       </c>
       <c r="C3" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.0</v>
+        <v>5.05</v>
       </c>
       <c r="E3" t="n">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="F3" t="n">
-        <v>4.21</v>
+        <v>4.19</v>
       </c>
       <c r="G3" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4">
@@ -341,19 +341,19 @@
         <v>39</v>
       </c>
       <c r="C4" t="n">
-        <v>38.0</v>
+        <v>42.0</v>
       </c>
       <c r="D4" t="n">
-        <v>7.42</v>
+        <v>7.62</v>
       </c>
       <c r="E4" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="F4" t="n">
-        <v>4.89</v>
+        <v>4.95</v>
       </c>
       <c r="G4" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="5">
@@ -364,19 +364,19 @@
         <v>40</v>
       </c>
       <c r="C5" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="D5" t="n">
-        <v>7.79</v>
+        <v>7.76</v>
       </c>
       <c r="E5" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="F5" t="n">
-        <v>5.42</v>
+        <v>5.43</v>
       </c>
       <c r="G5" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="6">
@@ -387,19 +387,19 @@
         <v>41</v>
       </c>
       <c r="C6" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="D6" t="n">
-        <v>7.74</v>
+        <v>7.67</v>
       </c>
       <c r="E6" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="F6" t="n">
-        <v>5.21</v>
+        <v>5.19</v>
       </c>
       <c r="G6" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="7">
@@ -410,19 +410,19 @@
         <v>42</v>
       </c>
       <c r="C7" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="D7" t="n">
-        <v>6.58</v>
+        <v>6.67</v>
       </c>
       <c r="E7" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="F7" t="n">
-        <v>4.32</v>
+        <v>4.43</v>
       </c>
       <c r="G7" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="8">
@@ -433,19 +433,19 @@
         <v>43</v>
       </c>
       <c r="C8" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="D8" t="n">
-        <v>6.63</v>
+        <v>6.81</v>
       </c>
       <c r="E8" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="F8" t="n">
-        <v>4.47</v>
+        <v>4.57</v>
       </c>
       <c r="G8" t="n">
-        <v>0.84</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="9">
@@ -456,19 +456,19 @@
         <v>44</v>
       </c>
       <c r="C9" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="D9" t="n">
-        <v>8.21</v>
+        <v>8.14</v>
       </c>
       <c r="E9" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="F9" t="n">
-        <v>5.58</v>
+        <v>5.67</v>
       </c>
       <c r="G9" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="10">
@@ -479,19 +479,19 @@
         <v>45</v>
       </c>
       <c r="C10" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="D10" t="n">
-        <v>7.42</v>
+        <v>7.48</v>
       </c>
       <c r="E10" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="F10" t="n">
-        <v>5.47</v>
+        <v>5.48</v>
       </c>
       <c r="G10" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="11">
@@ -502,19 +502,19 @@
         <v>46</v>
       </c>
       <c r="C11" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.58</v>
+        <v>6.52</v>
       </c>
       <c r="E11" t="n">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="F11" t="n">
-        <v>4.53</v>
+        <v>4.48</v>
       </c>
       <c r="G11" t="n">
-        <v>1.02</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="12">
@@ -525,19 +525,19 @@
         <v>47</v>
       </c>
       <c r="C12" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="D12" t="n">
-        <v>8.05</v>
+        <v>8.1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="F12" t="n">
-        <v>5.47</v>
+        <v>5.52</v>
       </c>
       <c r="G12" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="13">
@@ -548,19 +548,19 @@
         <v>48</v>
       </c>
       <c r="C13" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="D13" t="n">
-        <v>8.11</v>
+        <v>8.14</v>
       </c>
       <c r="E13" t="n">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="F13" t="n">
-        <v>6.05</v>
+        <v>6.1</v>
       </c>
       <c r="G13" t="n">
-        <v>0.97</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="14">
@@ -571,19 +571,19 @@
         <v>49</v>
       </c>
       <c r="C14" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="D14" t="n">
-        <v>8.42</v>
+        <v>8.48</v>
       </c>
       <c r="E14" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="F14" t="n">
-        <v>6.0</v>
+        <v>6.05</v>
       </c>
       <c r="G14" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="15">
@@ -594,19 +594,19 @@
         <v>50</v>
       </c>
       <c r="C15" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="D15" t="n">
-        <v>6.95</v>
+        <v>7.05</v>
       </c>
       <c r="E15" t="n">
-        <v>2.07</v>
+        <v>1.99</v>
       </c>
       <c r="F15" t="n">
-        <v>5.05</v>
+        <v>5.24</v>
       </c>
       <c r="G15" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="16">
@@ -617,19 +617,19 @@
         <v>51</v>
       </c>
       <c r="C16" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="D16" t="n">
-        <v>7.58</v>
+        <v>7.48</v>
       </c>
       <c r="E16" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="F16" t="n">
-        <v>4.74</v>
+        <v>4.76</v>
       </c>
       <c r="G16" t="n">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="17">
@@ -640,19 +640,19 @@
         <v>52</v>
       </c>
       <c r="C17" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="D17" t="n">
-        <v>6.84</v>
+        <v>6.52</v>
       </c>
       <c r="E17" t="n">
-        <v>1.74</v>
+        <v>1.94</v>
       </c>
       <c r="F17" t="n">
-        <v>5.16</v>
+        <v>5.24</v>
       </c>
       <c r="G17" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="18">
@@ -663,19 +663,19 @@
         <v>53</v>
       </c>
       <c r="C18" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="D18" t="n">
-        <v>5.47</v>
+        <v>5.33</v>
       </c>
       <c r="E18" t="n">
-        <v>2.29</v>
+        <v>2.31</v>
       </c>
       <c r="F18" t="n">
-        <v>4.47</v>
+        <v>4.43</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="19">
@@ -686,19 +686,19 @@
         <v>54</v>
       </c>
       <c r="C19" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="D19" t="n">
-        <v>7.26</v>
+        <v>7.33</v>
       </c>
       <c r="E19" t="n">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="F19" t="n">
-        <v>5.26</v>
+        <v>5.38</v>
       </c>
       <c r="G19" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="20">
@@ -709,19 +709,19 @@
         <v>55</v>
       </c>
       <c r="C20" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="D20" t="n">
-        <v>5.53</v>
+        <v>5.52</v>
       </c>
       <c r="E20" t="n">
-        <v>2.34</v>
+        <v>2.23</v>
       </c>
       <c r="F20" t="n">
-        <v>4.37</v>
+        <v>4.48</v>
       </c>
       <c r="G20" t="n">
-        <v>0.83</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="21">
@@ -732,16 +732,16 @@
         <v>56</v>
       </c>
       <c r="C21" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="D21" t="n">
-        <v>6.37</v>
+        <v>6.62</v>
       </c>
       <c r="E21" t="n">
-        <v>2.45</v>
+        <v>2.48</v>
       </c>
       <c r="F21" t="n">
-        <v>4.37</v>
+        <v>4.48</v>
       </c>
       <c r="G21" t="n">
         <v>1.21</v>
@@ -755,19 +755,19 @@
         <v>57</v>
       </c>
       <c r="C22" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="D22" t="n">
-        <v>7.68</v>
+        <v>7.71</v>
       </c>
       <c r="E22" t="n">
-        <v>2.11</v>
+        <v>2.0</v>
       </c>
       <c r="F22" t="n">
-        <v>5.42</v>
+        <v>5.48</v>
       </c>
       <c r="G22" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="23">
@@ -778,19 +778,19 @@
         <v>58</v>
       </c>
       <c r="C23" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="D23" t="n">
-        <v>7.89</v>
+        <v>7.86</v>
       </c>
       <c r="E23" t="n">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
       <c r="F23" t="n">
-        <v>5.16</v>
+        <v>5.24</v>
       </c>
       <c r="G23" t="n">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="24">
@@ -801,19 +801,19 @@
         <v>59</v>
       </c>
       <c r="C24" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="D24" t="n">
-        <v>8.26</v>
+        <v>8.33</v>
       </c>
       <c r="E24" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="F24" t="n">
-        <v>5.16</v>
+        <v>5.29</v>
       </c>
       <c r="G24" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="25">
@@ -824,19 +824,19 @@
         <v>60</v>
       </c>
       <c r="C25" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="D25" t="n">
-        <v>7.37</v>
+        <v>7.29</v>
       </c>
       <c r="E25" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="F25" t="n">
-        <v>5.16</v>
+        <v>5.19</v>
       </c>
       <c r="G25" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="26">
@@ -847,19 +847,19 @@
         <v>61</v>
       </c>
       <c r="C26" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="D26" t="n">
-        <v>7.47</v>
+        <v>7.52</v>
       </c>
       <c r="E26" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="F26" t="n">
-        <v>5.58</v>
+        <v>5.67</v>
       </c>
       <c r="G26" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="27">
@@ -870,19 +870,19 @@
         <v>62</v>
       </c>
       <c r="C27" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="D27" t="n">
-        <v>7.68</v>
+        <v>7.86</v>
       </c>
       <c r="E27" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="F27" t="n">
-        <v>5.47</v>
+        <v>5.62</v>
       </c>
       <c r="G27" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="28">
@@ -893,19 +893,19 @@
         <v>63</v>
       </c>
       <c r="C28" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="D28" t="n">
-        <v>5.26</v>
+        <v>5.29</v>
       </c>
       <c r="E28" t="n">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="F28" t="n">
-        <v>4.32</v>
+        <v>4.33</v>
       </c>
       <c r="G28" t="n">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="29">
@@ -916,19 +916,19 @@
         <v>64</v>
       </c>
       <c r="C29" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="D29" t="n">
-        <v>8.11</v>
+        <v>8.0</v>
       </c>
       <c r="E29" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="F29" t="n">
-        <v>5.32</v>
+        <v>5.33</v>
       </c>
       <c r="G29" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="30">
@@ -939,19 +939,19 @@
         <v>65</v>
       </c>
       <c r="C30" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="D30" t="n">
-        <v>8.53</v>
+        <v>8.57</v>
       </c>
       <c r="E30" t="n">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="F30" t="n">
-        <v>6.0</v>
+        <v>6.05</v>
       </c>
       <c r="G30" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="31">
@@ -962,19 +962,19 @@
         <v>66</v>
       </c>
       <c r="C31" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="D31" t="n">
-        <v>6.68</v>
+        <v>6.95</v>
       </c>
       <c r="E31" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="F31" t="n">
-        <v>4.32</v>
+        <v>4.48</v>
       </c>
       <c r="G31" t="n">
-        <v>0.82</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="32">
@@ -985,16 +985,16 @@
         <v>67</v>
       </c>
       <c r="C32" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="D32" t="n">
-        <v>6.05</v>
+        <v>6.1</v>
       </c>
       <c r="E32" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="F32" t="n">
-        <v>4.79</v>
+        <v>4.81</v>
       </c>
       <c r="G32" t="n">
         <v>0.98</v>
